--- a/outputFile/strn1.xlsx
+++ b/outputFile/strn1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,26 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[0.2857142857142857, 1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[0.2608695652173913, 3]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.3, 0]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
